--- a/KURSOVOI_PROECT_KURS3/шаблон_рапортичка.xlsx
+++ b/KURSOVOI_PROECT_KURS3/шаблон_рапортичка.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ART1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ART1\source\repos\KURSOVOI_PROECT_KURS3\KURSOVOI_PROECT_KURS3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A690653-AC86-43EB-88B2-E27830313881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA33B68-DC96-49ED-A58F-F06224B5B717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -600,10 +600,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -649,6 +646,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -977,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AI73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:AE36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1080,61 +1092,61 @@
       <c r="AE3" s="6"/>
     </row>
     <row r="4" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="60" t="s">
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="60" t="s">
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="60" t="s">
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="60" t="s">
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="63" t="s">
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AG4" s="64"/>
+      <c r="AG4" s="66"/>
     </row>
     <row r="5" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
-      <c r="B5" s="66"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="11">
         <v>1</v>
       </c>
@@ -1222,7 +1234,7 @@
       <c r="AE5" s="16">
         <v>4</v>
       </c>
-      <c r="AF5" s="46" t="s">
+      <c r="AF5" s="43" t="s">
         <v>14</v>
       </c>
       <c r="AG5" s="18" t="s">
@@ -1233,7 +1245,7 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1270,7 +1282,7 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -1307,7 +1319,7 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -1344,7 +1356,7 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -1381,7 +1393,7 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -1418,7 +1430,7 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="19"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1455,7 +1467,7 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="45"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1492,7 +1504,7 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="19"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1529,7 +1541,7 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1566,7 +1578,7 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -1603,7 +1615,7 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1640,7 +1652,7 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="19"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -1677,7 +1689,7 @@
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -1714,7 +1726,7 @@
       <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="B19" s="45"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -1751,7 +1763,7 @@
       <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -1788,7 +1800,7 @@
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="19"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -1825,7 +1837,7 @@
       <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="45"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -1862,7 +1874,7 @@
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="45"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="19"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -1899,7 +1911,7 @@
       <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="B24" s="45"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -1936,7 +1948,7 @@
       <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" s="45"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="19"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -1973,7 +1985,7 @@
       <c r="A26" s="1">
         <v>21</v>
       </c>
-      <c r="B26" s="45"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -2010,7 +2022,7 @@
       <c r="A27" s="1">
         <v>22</v>
       </c>
-      <c r="B27" s="45"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="19"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -2047,7 +2059,7 @@
       <c r="A28" s="1">
         <v>23</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="19"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2084,7 +2096,7 @@
       <c r="A29" s="1">
         <v>24</v>
       </c>
-      <c r="B29" s="45"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="19"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -2121,7 +2133,7 @@
       <c r="A30" s="1">
         <v>25</v>
       </c>
-      <c r="B30" s="45"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="19"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -2158,7 +2170,7 @@
       <c r="A31" s="1">
         <v>26</v>
       </c>
-      <c r="B31" s="45"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="19"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -2195,7 +2207,7 @@
       <c r="A32" s="1">
         <v>27</v>
       </c>
-      <c r="B32" s="45"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="19"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
@@ -2232,7 +2244,7 @@
       <c r="A33" s="1">
         <v>28</v>
       </c>
-      <c r="B33" s="45"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="19"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
@@ -2269,8 +2281,8 @@
       <c r="A34" s="1">
         <v>29</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -2306,85 +2318,85 @@
       <c r="A35" s="1">
         <v>30</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="42"/>
-      <c r="AB35" s="40"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="42"/>
-      <c r="AF35" s="43"/>
-      <c r="AG35" s="42"/>
-    </row>
-    <row r="36" spans="1:33" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="42"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="38"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="40"/>
+      <c r="AG35" s="39"/>
+    </row>
+    <row r="36" spans="1:33" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="32"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="55"/>
+      <c r="AE36" s="54"/>
       <c r="AF36" s="29"/>
-      <c r="AG36" s="32"/>
+      <c r="AG36" s="30"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
-      <c r="F37" s="35"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="26"/>
       <c r="H37" s="24"/>
       <c r="I37" s="25"/>
@@ -2394,17 +2406,17 @@
       <c r="M37" s="24"/>
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
-      <c r="P37" s="35"/>
+      <c r="P37" s="32"/>
       <c r="Q37" s="26"/>
       <c r="R37" s="24"/>
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
-      <c r="U37" s="35"/>
+      <c r="U37" s="32"/>
       <c r="V37" s="26"/>
       <c r="W37" s="24"/>
       <c r="X37" s="25"/>
       <c r="Y37" s="25"/>
-      <c r="Z37" s="35"/>
+      <c r="Z37" s="32"/>
       <c r="AA37" s="26"/>
       <c r="AB37" s="24"/>
       <c r="AC37" s="25"/>
@@ -2414,7 +2426,7 @@
       <c r="AG37" s="26"/>
     </row>
     <row r="38" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="6"/>
@@ -2450,706 +2462,706 @@
       <c r="AG38" s="6"/>
     </row>
     <row r="43" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="68"/>
-      <c r="T43" s="68"/>
-      <c r="U43" s="68"/>
-      <c r="V43" s="68"/>
-      <c r="W43" s="68"/>
-      <c r="X43" s="68"/>
-      <c r="Y43" s="68"/>
-      <c r="Z43" s="68"/>
-      <c r="AA43" s="68"/>
-      <c r="AB43" s="68"/>
-      <c r="AC43" s="68"/>
-      <c r="AD43" s="68"/>
-      <c r="AE43" s="68"/>
-      <c r="AF43" s="47"/>
-      <c r="AG43" s="47"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="70"/>
+      <c r="U43" s="70"/>
+      <c r="V43" s="70"/>
+      <c r="W43" s="70"/>
+      <c r="X43" s="70"/>
+      <c r="Y43" s="70"/>
+      <c r="Z43" s="70"/>
+      <c r="AA43" s="70"/>
+      <c r="AB43" s="70"/>
+      <c r="AC43" s="70"/>
+      <c r="AD43" s="70"/>
+      <c r="AE43" s="70"/>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="44"/>
     </row>
     <row r="44" spans="1:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="68"/>
-      <c r="O44" s="68"/>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="68"/>
-      <c r="T44" s="68"/>
-      <c r="U44" s="68"/>
-      <c r="V44" s="68"/>
-      <c r="W44" s="68"/>
-      <c r="X44" s="68"/>
-      <c r="Y44" s="68"/>
-      <c r="Z44" s="68"/>
-      <c r="AA44" s="68"/>
-      <c r="AB44" s="68"/>
-      <c r="AC44" s="68"/>
-      <c r="AD44" s="68"/>
-      <c r="AE44" s="68"/>
-      <c r="AF44" s="68"/>
-      <c r="AG44" s="68"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="70"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="70"/>
+      <c r="S44" s="70"/>
+      <c r="T44" s="70"/>
+      <c r="U44" s="70"/>
+      <c r="V44" s="70"/>
+      <c r="W44" s="70"/>
+      <c r="X44" s="70"/>
+      <c r="Y44" s="70"/>
+      <c r="Z44" s="70"/>
+      <c r="AA44" s="70"/>
+      <c r="AB44" s="70"/>
+      <c r="AC44" s="70"/>
+      <c r="AD44" s="70"/>
+      <c r="AE44" s="70"/>
+      <c r="AF44" s="70"/>
+      <c r="AG44" s="70"/>
     </row>
     <row r="45" spans="1:33" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="47"/>
-      <c r="X45" s="47"/>
-      <c r="Y45" s="47"/>
-      <c r="Z45" s="47"/>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="47"/>
-      <c r="AC45" s="47"/>
-      <c r="AD45" s="47"/>
-      <c r="AE45" s="47"/>
-      <c r="AF45" s="47"/>
-      <c r="AG45" s="47"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="44"/>
+      <c r="AF45" s="44"/>
+      <c r="AG45" s="44"/>
     </row>
     <row r="46" spans="1:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B46" s="48"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="54"/>
-      <c r="V46" s="54"/>
-      <c r="W46" s="54"/>
-      <c r="X46" s="54"/>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="54"/>
-      <c r="AA46" s="54"/>
-      <c r="AB46" s="54"/>
-      <c r="AC46" s="54"/>
-      <c r="AD46" s="54"/>
-      <c r="AE46" s="54"/>
-      <c r="AF46" s="54"/>
-      <c r="AG46" s="54"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AB46" s="56"/>
+      <c r="AC46" s="56"/>
+      <c r="AD46" s="56"/>
+      <c r="AE46" s="56"/>
+      <c r="AF46" s="56"/>
+      <c r="AG46" s="56"/>
     </row>
     <row r="47" spans="1:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B47" s="48"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="54"/>
-      <c r="V47" s="54"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54"/>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="54"/>
-      <c r="AA47" s="54"/>
-      <c r="AB47" s="54"/>
-      <c r="AC47" s="54"/>
-      <c r="AD47" s="54"/>
-      <c r="AE47" s="54"/>
-      <c r="AF47" s="54"/>
-      <c r="AG47" s="54"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="56"/>
+      <c r="T47" s="56"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="56"/>
+      <c r="AA47" s="56"/>
+      <c r="AB47" s="56"/>
+      <c r="AC47" s="56"/>
+      <c r="AD47" s="56"/>
+      <c r="AE47" s="56"/>
+      <c r="AF47" s="56"/>
+      <c r="AG47" s="56"/>
     </row>
     <row r="48" spans="1:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B48" s="48"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
-      <c r="V48" s="54"/>
-      <c r="W48" s="54"/>
-      <c r="X48" s="54"/>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="54"/>
-      <c r="AA48" s="54"/>
-      <c r="AB48" s="54"/>
-      <c r="AC48" s="54"/>
-      <c r="AD48" s="54"/>
-      <c r="AE48" s="54"/>
-      <c r="AF48" s="54"/>
-      <c r="AG48" s="54"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="56"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AE48" s="56"/>
+      <c r="AF48" s="56"/>
+      <c r="AG48" s="56"/>
     </row>
     <row r="49" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B49" s="48"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="54"/>
-      <c r="V49" s="54"/>
-      <c r="W49" s="54"/>
-      <c r="X49" s="54"/>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="54"/>
-      <c r="AA49" s="54"/>
-      <c r="AB49" s="54"/>
-      <c r="AC49" s="54"/>
-      <c r="AD49" s="54"/>
-      <c r="AE49" s="54"/>
-      <c r="AF49" s="54"/>
-      <c r="AG49" s="54"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="56"/>
+      <c r="AC49" s="56"/>
+      <c r="AD49" s="56"/>
+      <c r="AE49" s="56"/>
+      <c r="AF49" s="56"/>
+      <c r="AG49" s="56"/>
     </row>
     <row r="50" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B50" s="48"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="54"/>
-      <c r="T50" s="54"/>
-      <c r="U50" s="54"/>
-      <c r="V50" s="54"/>
-      <c r="W50" s="54"/>
-      <c r="X50" s="54"/>
-      <c r="Y50" s="54"/>
-      <c r="Z50" s="54"/>
-      <c r="AA50" s="54"/>
-      <c r="AB50" s="54"/>
-      <c r="AC50" s="54"/>
-      <c r="AD50" s="54"/>
-      <c r="AE50" s="54"/>
-      <c r="AF50" s="54"/>
-      <c r="AG50" s="54"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
+      <c r="X50" s="56"/>
+      <c r="Y50" s="56"/>
+      <c r="Z50" s="56"/>
+      <c r="AA50" s="56"/>
+      <c r="AB50" s="56"/>
+      <c r="AC50" s="56"/>
+      <c r="AD50" s="56"/>
+      <c r="AE50" s="56"/>
+      <c r="AF50" s="56"/>
+      <c r="AG50" s="56"/>
     </row>
     <row r="51" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="48"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="54"/>
-      <c r="V51" s="54"/>
-      <c r="W51" s="54"/>
-      <c r="X51" s="54"/>
-      <c r="Y51" s="54"/>
-      <c r="Z51" s="54"/>
-      <c r="AA51" s="54"/>
-      <c r="AB51" s="54"/>
-      <c r="AC51" s="54"/>
-      <c r="AD51" s="54"/>
-      <c r="AE51" s="54"/>
-      <c r="AF51" s="54"/>
-      <c r="AG51" s="54"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
+      <c r="X51" s="56"/>
+      <c r="Y51" s="56"/>
+      <c r="Z51" s="56"/>
+      <c r="AA51" s="56"/>
+      <c r="AB51" s="56"/>
+      <c r="AC51" s="56"/>
+      <c r="AD51" s="56"/>
+      <c r="AE51" s="56"/>
+      <c r="AF51" s="56"/>
+      <c r="AG51" s="56"/>
     </row>
     <row r="52" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B52" s="48"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54"/>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54"/>
-      <c r="AA52" s="54"/>
-      <c r="AB52" s="54"/>
-      <c r="AC52" s="54"/>
-      <c r="AD52" s="54"/>
-      <c r="AE52" s="54"/>
-      <c r="AF52" s="54"/>
-      <c r="AG52" s="54"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="56"/>
+      <c r="X52" s="56"/>
+      <c r="Y52" s="56"/>
+      <c r="Z52" s="56"/>
+      <c r="AA52" s="56"/>
+      <c r="AB52" s="56"/>
+      <c r="AC52" s="56"/>
+      <c r="AD52" s="56"/>
+      <c r="AE52" s="56"/>
+      <c r="AF52" s="56"/>
+      <c r="AG52" s="56"/>
     </row>
     <row r="53" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B53" s="48"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54"/>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="54"/>
-      <c r="AA53" s="54"/>
-      <c r="AB53" s="54"/>
-      <c r="AC53" s="54"/>
-      <c r="AD53" s="54"/>
-      <c r="AE53" s="54"/>
-      <c r="AF53" s="54"/>
-      <c r="AG53" s="54"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="56"/>
+      <c r="Z53" s="56"/>
+      <c r="AA53" s="56"/>
+      <c r="AB53" s="56"/>
+      <c r="AC53" s="56"/>
+      <c r="AD53" s="56"/>
+      <c r="AE53" s="56"/>
+      <c r="AF53" s="56"/>
+      <c r="AG53" s="56"/>
     </row>
     <row r="54" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B54" s="48"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="54"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="54"/>
-      <c r="T54" s="54"/>
-      <c r="U54" s="54"/>
-      <c r="V54" s="54"/>
-      <c r="W54" s="54"/>
-      <c r="X54" s="54"/>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="54"/>
-      <c r="AA54" s="54"/>
-      <c r="AB54" s="54"/>
-      <c r="AC54" s="54"/>
-      <c r="AD54" s="54"/>
-      <c r="AE54" s="54"/>
-      <c r="AF54" s="54"/>
-      <c r="AG54" s="54"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="56"/>
+      <c r="X54" s="56"/>
+      <c r="Y54" s="56"/>
+      <c r="Z54" s="56"/>
+      <c r="AA54" s="56"/>
+      <c r="AB54" s="56"/>
+      <c r="AC54" s="56"/>
+      <c r="AD54" s="56"/>
+      <c r="AE54" s="56"/>
+      <c r="AF54" s="56"/>
+      <c r="AG54" s="56"/>
     </row>
     <row r="55" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="48"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="54"/>
-      <c r="V55" s="54"/>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54"/>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="54"/>
-      <c r="AA55" s="54"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="54"/>
-      <c r="AD55" s="54"/>
-      <c r="AE55" s="54"/>
-      <c r="AF55" s="54"/>
-      <c r="AG55" s="54"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="56"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="56"/>
+      <c r="X55" s="56"/>
+      <c r="Y55" s="56"/>
+      <c r="Z55" s="56"/>
+      <c r="AA55" s="56"/>
+      <c r="AB55" s="56"/>
+      <c r="AC55" s="56"/>
+      <c r="AD55" s="56"/>
+      <c r="AE55" s="56"/>
+      <c r="AF55" s="56"/>
+      <c r="AG55" s="56"/>
     </row>
     <row r="56" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B56" s="48"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="54"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="54"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="54"/>
-      <c r="T56" s="54"/>
-      <c r="U56" s="54"/>
-      <c r="V56" s="54"/>
-      <c r="W56" s="54"/>
-      <c r="X56" s="54"/>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54"/>
-      <c r="AA56" s="54"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="54"/>
-      <c r="AD56" s="54"/>
-      <c r="AE56" s="54"/>
-      <c r="AF56" s="54"/>
-      <c r="AG56" s="54"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="56"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="56"/>
+      <c r="V56" s="56"/>
+      <c r="W56" s="56"/>
+      <c r="X56" s="56"/>
+      <c r="Y56" s="56"/>
+      <c r="Z56" s="56"/>
+      <c r="AA56" s="56"/>
+      <c r="AB56" s="56"/>
+      <c r="AC56" s="56"/>
+      <c r="AD56" s="56"/>
+      <c r="AE56" s="56"/>
+      <c r="AF56" s="56"/>
+      <c r="AG56" s="56"/>
     </row>
     <row r="57" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="48"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="54"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="54"/>
-      <c r="V57" s="54"/>
-      <c r="W57" s="54"/>
-      <c r="X57" s="54"/>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="54"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="54"/>
-      <c r="AD57" s="54"/>
-      <c r="AE57" s="54"/>
-      <c r="AF57" s="54"/>
-      <c r="AG57" s="54"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="56"/>
+      <c r="T57" s="56"/>
+      <c r="U57" s="56"/>
+      <c r="V57" s="56"/>
+      <c r="W57" s="56"/>
+      <c r="X57" s="56"/>
+      <c r="Y57" s="56"/>
+      <c r="Z57" s="56"/>
+      <c r="AA57" s="56"/>
+      <c r="AB57" s="56"/>
+      <c r="AC57" s="56"/>
+      <c r="AD57" s="56"/>
+      <c r="AE57" s="56"/>
+      <c r="AF57" s="56"/>
+      <c r="AG57" s="56"/>
     </row>
     <row r="58" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B58" s="48"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="54"/>
-      <c r="R58" s="54"/>
-      <c r="S58" s="54"/>
-      <c r="T58" s="54"/>
-      <c r="U58" s="54"/>
-      <c r="V58" s="54"/>
-      <c r="W58" s="54"/>
-      <c r="X58" s="54"/>
-      <c r="Y58" s="54"/>
-      <c r="Z58" s="54"/>
-      <c r="AA58" s="54"/>
-      <c r="AB58" s="54"/>
-      <c r="AC58" s="54"/>
-      <c r="AD58" s="54"/>
-      <c r="AE58" s="54"/>
-      <c r="AF58" s="54"/>
-      <c r="AG58" s="54"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="56"/>
+      <c r="T58" s="56"/>
+      <c r="U58" s="56"/>
+      <c r="V58" s="56"/>
+      <c r="W58" s="56"/>
+      <c r="X58" s="56"/>
+      <c r="Y58" s="56"/>
+      <c r="Z58" s="56"/>
+      <c r="AA58" s="56"/>
+      <c r="AB58" s="56"/>
+      <c r="AC58" s="56"/>
+      <c r="AD58" s="56"/>
+      <c r="AE58" s="56"/>
+      <c r="AF58" s="56"/>
+      <c r="AG58" s="56"/>
     </row>
     <row r="59" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="48"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="54"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="54"/>
-      <c r="V59" s="54"/>
-      <c r="W59" s="54"/>
-      <c r="X59" s="54"/>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="54"/>
-      <c r="AD59" s="54"/>
-      <c r="AE59" s="54"/>
-      <c r="AF59" s="54"/>
-      <c r="AG59" s="54"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="56"/>
+      <c r="Q59" s="56"/>
+      <c r="R59" s="56"/>
+      <c r="S59" s="56"/>
+      <c r="T59" s="56"/>
+      <c r="U59" s="56"/>
+      <c r="V59" s="56"/>
+      <c r="W59" s="56"/>
+      <c r="X59" s="56"/>
+      <c r="Y59" s="56"/>
+      <c r="Z59" s="56"/>
+      <c r="AA59" s="56"/>
+      <c r="AB59" s="56"/>
+      <c r="AC59" s="56"/>
+      <c r="AD59" s="56"/>
+      <c r="AE59" s="56"/>
+      <c r="AF59" s="56"/>
+      <c r="AG59" s="56"/>
     </row>
     <row r="60" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B60" s="48"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="54"/>
-      <c r="V60" s="54"/>
-      <c r="W60" s="54"/>
-      <c r="X60" s="54"/>
-      <c r="Y60" s="54"/>
-      <c r="Z60" s="54"/>
-      <c r="AA60" s="54"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="54"/>
-      <c r="AD60" s="54"/>
-      <c r="AE60" s="54"/>
-      <c r="AF60" s="54"/>
-      <c r="AG60" s="54"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="56"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="56"/>
+      <c r="T60" s="56"/>
+      <c r="U60" s="56"/>
+      <c r="V60" s="56"/>
+      <c r="W60" s="56"/>
+      <c r="X60" s="56"/>
+      <c r="Y60" s="56"/>
+      <c r="Z60" s="56"/>
+      <c r="AA60" s="56"/>
+      <c r="AB60" s="56"/>
+      <c r="AC60" s="56"/>
+      <c r="AD60" s="56"/>
+      <c r="AE60" s="56"/>
+      <c r="AF60" s="56"/>
+      <c r="AG60" s="56"/>
     </row>
     <row r="61" spans="2:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="48"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
-      <c r="V61" s="54"/>
-      <c r="W61" s="54"/>
-      <c r="X61" s="54"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="54"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="54"/>
-      <c r="AD61" s="54"/>
-      <c r="AE61" s="54"/>
-      <c r="AF61" s="54"/>
-      <c r="AG61" s="54"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="56"/>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="56"/>
+      <c r="T61" s="56"/>
+      <c r="U61" s="56"/>
+      <c r="V61" s="56"/>
+      <c r="W61" s="56"/>
+      <c r="X61" s="56"/>
+      <c r="Y61" s="56"/>
+      <c r="Z61" s="56"/>
+      <c r="AA61" s="56"/>
+      <c r="AB61" s="56"/>
+      <c r="AC61" s="56"/>
+      <c r="AD61" s="56"/>
+      <c r="AE61" s="56"/>
+      <c r="AF61" s="56"/>
+      <c r="AG61" s="56"/>
     </row>
     <row r="62" spans="2:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="2:33" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:33" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="49"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="49"/>
-      <c r="U64" s="49"/>
-      <c r="V64" s="50"/>
-      <c r="W64" s="50"/>
-      <c r="X64" s="50"/>
-      <c r="Y64" s="50"/>
-      <c r="Z64" s="50"/>
-      <c r="AA64" s="50"/>
-      <c r="AB64" s="50"/>
-      <c r="AC64" s="50"/>
+      <c r="N64" s="69"/>
+      <c r="O64" s="69"/>
+      <c r="P64" s="69"/>
+      <c r="Q64" s="69"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="46"/>
+      <c r="V64" s="47"/>
+      <c r="W64" s="47"/>
+      <c r="X64" s="47"/>
+      <c r="Y64" s="47"/>
+      <c r="Z64" s="47"/>
+      <c r="AA64" s="47"/>
+      <c r="AB64" s="47"/>
+      <c r="AC64" s="47"/>
     </row>
     <row r="65" spans="14:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N65" s="50"/>
-      <c r="O65" s="50"/>
-      <c r="P65" s="50"/>
-      <c r="Q65" s="50"/>
-      <c r="R65" s="50"/>
-      <c r="S65" s="50"/>
-      <c r="T65" s="50"/>
-      <c r="U65" s="50"/>
-      <c r="V65" s="50"/>
-      <c r="W65" s="50"/>
-      <c r="X65" s="50"/>
-      <c r="Y65" s="50"/>
-      <c r="Z65" s="50"/>
-      <c r="AA65" s="50"/>
-      <c r="AB65" s="50"/>
-      <c r="AC65" s="50"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="47"/>
+      <c r="T65" s="47"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="47"/>
+      <c r="W65" s="47"/>
+      <c r="X65" s="47"/>
+      <c r="Y65" s="47"/>
+      <c r="Z65" s="47"/>
+      <c r="AA65" s="47"/>
+      <c r="AB65" s="47"/>
+      <c r="AC65" s="47"/>
     </row>
     <row r="66" spans="14:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="N66" s="51"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="52"/>
-      <c r="S66" s="52"/>
-      <c r="T66" s="53"/>
-      <c r="U66" s="53"/>
-      <c r="V66" s="50"/>
-      <c r="W66" s="50"/>
-      <c r="X66" s="50"/>
-      <c r="Y66" s="50"/>
-      <c r="Z66" s="50"/>
-      <c r="AA66" s="50"/>
-      <c r="AB66" s="50"/>
-      <c r="AC66" s="50"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="50"/>
+      <c r="U66" s="50"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="47"/>
+      <c r="X66" s="47"/>
+      <c r="Y66" s="47"/>
+      <c r="Z66" s="47"/>
+      <c r="AA66" s="47"/>
+      <c r="AB66" s="47"/>
+      <c r="AC66" s="47"/>
     </row>
     <row r="68" spans="14:35" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="N68" s="5"/>

--- a/KURSOVOI_PROECT_KURS3/шаблон_рапортичка.xlsx
+++ b/KURSOVOI_PROECT_KURS3/шаблон_рапортичка.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ART1\source\repos\KURSOVOI_PROECT_KURS3\KURSOVOI_PROECT_KURS3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA33B68-DC96-49ED-A58F-F06224B5B717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FF9152-79DC-44E1-A0F7-321B0104D394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Рапортичка" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -183,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -443,17 +443,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -539,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -620,7 +609,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -662,15 +650,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -678,33 +684,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -989,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AI73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:AE36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ25" sqref="AJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1092,61 +1080,61 @@
       <c r="AE3" s="6"/>
     </row>
     <row r="4" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="62" t="s">
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="62" t="s">
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="62" t="s">
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="62" t="s">
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="65" t="s">
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="AG4" s="66"/>
+      <c r="AG4" s="67"/>
     </row>
     <row r="5" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="68"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="11">
         <v>1</v>
       </c>
@@ -1234,7 +1222,7 @@
       <c r="AE5" s="16">
         <v>4</v>
       </c>
-      <c r="AF5" s="43" t="s">
+      <c r="AF5" s="42" t="s">
         <v>14</v>
       </c>
       <c r="AG5" s="18" t="s">
@@ -1245,7 +1233,7 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1275,14 +1263,17 @@
       <c r="AC6" s="23"/>
       <c r="AD6" s="23"/>
       <c r="AE6" s="18"/>
-      <c r="AF6" s="17"/>
+      <c r="AF6" s="17">
+        <f>SUM(C6:AE6)</f>
+        <v>0</v>
+      </c>
       <c r="AG6" s="18"/>
     </row>
     <row r="7" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -1312,14 +1303,17 @@
       <c r="AC7" s="23"/>
       <c r="AD7" s="23"/>
       <c r="AE7" s="18"/>
-      <c r="AF7" s="17"/>
+      <c r="AF7" s="17">
+        <f t="shared" ref="AF7:AF35" si="0">SUM(C7:AE7)</f>
+        <v>0</v>
+      </c>
       <c r="AG7" s="18"/>
     </row>
     <row r="8" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -1349,14 +1343,17 @@
       <c r="AC8" s="23"/>
       <c r="AD8" s="23"/>
       <c r="AE8" s="18"/>
-      <c r="AF8" s="17"/>
+      <c r="AF8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG8" s="18"/>
     </row>
     <row r="9" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -1386,14 +1383,17 @@
       <c r="AC9" s="23"/>
       <c r="AD9" s="23"/>
       <c r="AE9" s="18"/>
-      <c r="AF9" s="17"/>
+      <c r="AF9" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG9" s="18"/>
     </row>
     <row r="10" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -1423,14 +1423,17 @@
       <c r="AC10" s="23"/>
       <c r="AD10" s="23"/>
       <c r="AE10" s="18"/>
-      <c r="AF10" s="17"/>
+      <c r="AF10" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG10" s="18"/>
     </row>
     <row r="11" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="19"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1460,14 +1463,17 @@
       <c r="AC11" s="23"/>
       <c r="AD11" s="23"/>
       <c r="AE11" s="18"/>
-      <c r="AF11" s="17"/>
+      <c r="AF11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG11" s="18"/>
     </row>
     <row r="12" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1497,14 +1503,17 @@
       <c r="AC12" s="23"/>
       <c r="AD12" s="23"/>
       <c r="AE12" s="18"/>
-      <c r="AF12" s="17"/>
+      <c r="AF12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG12" s="18"/>
     </row>
     <row r="13" spans="1:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="19"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1534,14 +1543,17 @@
       <c r="AC13" s="23"/>
       <c r="AD13" s="23"/>
       <c r="AE13" s="18"/>
-      <c r="AF13" s="17"/>
+      <c r="AF13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG13" s="18"/>
     </row>
     <row r="14" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="42"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1571,14 +1583,17 @@
       <c r="AC14" s="23"/>
       <c r="AD14" s="23"/>
       <c r="AE14" s="18"/>
-      <c r="AF14" s="17"/>
+      <c r="AF14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG14" s="18"/>
     </row>
     <row r="15" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="42"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -1608,14 +1623,17 @@
       <c r="AC15" s="23"/>
       <c r="AD15" s="23"/>
       <c r="AE15" s="18"/>
-      <c r="AF15" s="17"/>
+      <c r="AF15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG15" s="18"/>
     </row>
     <row r="16" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1645,14 +1663,17 @@
       <c r="AC16" s="23"/>
       <c r="AD16" s="23"/>
       <c r="AE16" s="18"/>
-      <c r="AF16" s="17"/>
+      <c r="AF16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG16" s="18"/>
     </row>
     <row r="17" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="19"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -1682,14 +1703,17 @@
       <c r="AC17" s="23"/>
       <c r="AD17" s="23"/>
       <c r="AE17" s="18"/>
-      <c r="AF17" s="17"/>
+      <c r="AF17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG17" s="18"/>
     </row>
     <row r="18" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -1719,14 +1743,17 @@
       <c r="AC18" s="23"/>
       <c r="AD18" s="23"/>
       <c r="AE18" s="18"/>
-      <c r="AF18" s="17"/>
+      <c r="AF18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG18" s="18"/>
     </row>
     <row r="19" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -1756,14 +1783,17 @@
       <c r="AC19" s="23"/>
       <c r="AD19" s="23"/>
       <c r="AE19" s="18"/>
-      <c r="AF19" s="17"/>
+      <c r="AF19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG19" s="18"/>
     </row>
     <row r="20" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -1793,14 +1823,17 @@
       <c r="AC20" s="23"/>
       <c r="AD20" s="23"/>
       <c r="AE20" s="18"/>
-      <c r="AF20" s="17"/>
+      <c r="AF20" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG20" s="18"/>
     </row>
     <row r="21" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="42"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="19"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -1830,14 +1863,17 @@
       <c r="AC21" s="23"/>
       <c r="AD21" s="23"/>
       <c r="AE21" s="18"/>
-      <c r="AF21" s="17"/>
+      <c r="AF21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG21" s="18"/>
     </row>
     <row r="22" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -1867,14 +1903,17 @@
       <c r="AC22" s="23"/>
       <c r="AD22" s="23"/>
       <c r="AE22" s="18"/>
-      <c r="AF22" s="17"/>
+      <c r="AF22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG22" s="18"/>
     </row>
     <row r="23" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="42"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="19"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -1904,14 +1943,17 @@
       <c r="AC23" s="23"/>
       <c r="AD23" s="23"/>
       <c r="AE23" s="18"/>
-      <c r="AF23" s="17"/>
+      <c r="AF23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG23" s="18"/>
     </row>
     <row r="24" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="B24" s="42"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -1941,14 +1983,17 @@
       <c r="AC24" s="23"/>
       <c r="AD24" s="23"/>
       <c r="AE24" s="18"/>
-      <c r="AF24" s="17"/>
+      <c r="AF24" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG24" s="18"/>
     </row>
     <row r="25" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" s="42"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="19"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -1978,14 +2023,17 @@
       <c r="AC25" s="23"/>
       <c r="AD25" s="23"/>
       <c r="AE25" s="18"/>
-      <c r="AF25" s="17"/>
+      <c r="AF25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG25" s="18"/>
     </row>
     <row r="26" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>21</v>
       </c>
-      <c r="B26" s="42"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -2015,14 +2063,17 @@
       <c r="AC26" s="23"/>
       <c r="AD26" s="23"/>
       <c r="AE26" s="18"/>
-      <c r="AF26" s="17"/>
+      <c r="AF26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG26" s="18"/>
     </row>
     <row r="27" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>22</v>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="19"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -2052,14 +2103,17 @@
       <c r="AC27" s="23"/>
       <c r="AD27" s="23"/>
       <c r="AE27" s="18"/>
-      <c r="AF27" s="17"/>
+      <c r="AF27" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG27" s="18"/>
     </row>
     <row r="28" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>23</v>
       </c>
-      <c r="B28" s="42"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="19"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2089,14 +2143,17 @@
       <c r="AC28" s="23"/>
       <c r="AD28" s="23"/>
       <c r="AE28" s="18"/>
-      <c r="AF28" s="17"/>
+      <c r="AF28" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG28" s="18"/>
     </row>
     <row r="29" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>24</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="19"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -2126,14 +2183,17 @@
       <c r="AC29" s="23"/>
       <c r="AD29" s="23"/>
       <c r="AE29" s="18"/>
-      <c r="AF29" s="17"/>
+      <c r="AF29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG29" s="18"/>
     </row>
     <row r="30" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>25</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="19"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -2163,14 +2223,17 @@
       <c r="AC30" s="23"/>
       <c r="AD30" s="23"/>
       <c r="AE30" s="18"/>
-      <c r="AF30" s="17"/>
+      <c r="AF30" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG30" s="18"/>
     </row>
     <row r="31" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>26</v>
       </c>
-      <c r="B31" s="42"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="19"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -2200,14 +2263,17 @@
       <c r="AC31" s="23"/>
       <c r="AD31" s="23"/>
       <c r="AE31" s="18"/>
-      <c r="AF31" s="17"/>
+      <c r="AF31" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG31" s="18"/>
     </row>
     <row r="32" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>27</v>
       </c>
-      <c r="B32" s="42"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="19"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
@@ -2237,14 +2303,17 @@
       <c r="AC32" s="23"/>
       <c r="AD32" s="23"/>
       <c r="AE32" s="18"/>
-      <c r="AF32" s="17"/>
+      <c r="AF32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG32" s="18"/>
     </row>
     <row r="33" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>28</v>
       </c>
-      <c r="B33" s="42"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="19"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
@@ -2274,15 +2343,18 @@
       <c r="AC33" s="23"/>
       <c r="AD33" s="23"/>
       <c r="AE33" s="18"/>
-      <c r="AF33" s="17"/>
+      <c r="AF33" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG33" s="18"/>
     </row>
     <row r="34" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>29</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -2311,14 +2383,17 @@
       <c r="AC34" s="23"/>
       <c r="AD34" s="23"/>
       <c r="AE34" s="18"/>
-      <c r="AF34" s="17"/>
+      <c r="AF34" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG34" s="18"/>
     </row>
     <row r="35" spans="1:33" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>30</v>
       </c>
-      <c r="B35" s="42"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="34"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -2348,7 +2423,10 @@
       <c r="AC35" s="38"/>
       <c r="AD35" s="38"/>
       <c r="AE35" s="39"/>
-      <c r="AF35" s="40"/>
+      <c r="AF35" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AG35" s="39"/>
     </row>
     <row r="36" spans="1:33" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -2356,35 +2434,35 @@
       <c r="B36" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="52"/>
-      <c r="AD36" s="55"/>
-      <c r="AE36" s="54"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="54"/>
+      <c r="AE36" s="53"/>
       <c r="AF36" s="29"/>
       <c r="AG36" s="30"/>
     </row>
@@ -2462,109 +2540,109 @@
       <c r="AG38" s="6"/>
     </row>
     <row r="43" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="70"/>
-      <c r="S43" s="70"/>
-      <c r="T43" s="70"/>
-      <c r="U43" s="70"/>
-      <c r="V43" s="70"/>
-      <c r="W43" s="70"/>
-      <c r="X43" s="70"/>
-      <c r="Y43" s="70"/>
-      <c r="Z43" s="70"/>
-      <c r="AA43" s="70"/>
-      <c r="AB43" s="70"/>
-      <c r="AC43" s="70"/>
-      <c r="AD43" s="70"/>
-      <c r="AE43" s="70"/>
-      <c r="AF43" s="44"/>
-      <c r="AG43" s="44"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="57"/>
+      <c r="X43" s="57"/>
+      <c r="Y43" s="57"/>
+      <c r="Z43" s="57"/>
+      <c r="AA43" s="57"/>
+      <c r="AB43" s="57"/>
+      <c r="AC43" s="57"/>
+      <c r="AD43" s="57"/>
+      <c r="AE43" s="57"/>
+      <c r="AF43" s="43"/>
+      <c r="AG43" s="43"/>
     </row>
     <row r="44" spans="1:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70"/>
-      <c r="O44" s="70"/>
-      <c r="P44" s="70"/>
-      <c r="Q44" s="70"/>
-      <c r="R44" s="70"/>
-      <c r="S44" s="70"/>
-      <c r="T44" s="70"/>
-      <c r="U44" s="70"/>
-      <c r="V44" s="70"/>
-      <c r="W44" s="70"/>
-      <c r="X44" s="70"/>
-      <c r="Y44" s="70"/>
-      <c r="Z44" s="70"/>
-      <c r="AA44" s="70"/>
-      <c r="AB44" s="70"/>
-      <c r="AC44" s="70"/>
-      <c r="AD44" s="70"/>
-      <c r="AE44" s="70"/>
-      <c r="AF44" s="70"/>
-      <c r="AG44" s="70"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="57"/>
+      <c r="X44" s="57"/>
+      <c r="Y44" s="57"/>
+      <c r="Z44" s="57"/>
+      <c r="AA44" s="57"/>
+      <c r="AB44" s="57"/>
+      <c r="AC44" s="57"/>
+      <c r="AD44" s="57"/>
+      <c r="AE44" s="57"/>
+      <c r="AF44" s="57"/>
+      <c r="AG44" s="57"/>
     </row>
     <row r="45" spans="1:33" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="44"/>
-      <c r="Z45" s="44"/>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="44"/>
-      <c r="AC45" s="44"/>
-      <c r="AD45" s="44"/>
-      <c r="AE45" s="44"/>
-      <c r="AF45" s="44"/>
-      <c r="AG45" s="44"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="43"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="43"/>
+      <c r="AA45" s="43"/>
+      <c r="AB45" s="43"/>
+      <c r="AC45" s="43"/>
+      <c r="AD45" s="43"/>
+      <c r="AE45" s="43"/>
+      <c r="AF45" s="43"/>
+      <c r="AG45" s="43"/>
     </row>
     <row r="46" spans="1:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B46" s="45"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="56"/>
       <c r="D46" s="56"/>
       <c r="E46" s="56"/>
@@ -2598,7 +2676,7 @@
       <c r="AG46" s="56"/>
     </row>
     <row r="47" spans="1:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B47" s="45"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="56"/>
       <c r="D47" s="56"/>
       <c r="E47" s="56"/>
@@ -2632,7 +2710,7 @@
       <c r="AG47" s="56"/>
     </row>
     <row r="48" spans="1:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B48" s="45"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="56"/>
       <c r="D48" s="56"/>
       <c r="E48" s="56"/>
@@ -2666,7 +2744,7 @@
       <c r="AG48" s="56"/>
     </row>
     <row r="49" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B49" s="45"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="56"/>
       <c r="D49" s="56"/>
       <c r="E49" s="56"/>
@@ -2700,7 +2778,7 @@
       <c r="AG49" s="56"/>
     </row>
     <row r="50" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B50" s="45"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
       <c r="E50" s="56"/>
@@ -2734,7 +2812,7 @@
       <c r="AG50" s="56"/>
     </row>
     <row r="51" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="45"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="56"/>
       <c r="D51" s="56"/>
       <c r="E51" s="56"/>
@@ -2768,7 +2846,7 @@
       <c r="AG51" s="56"/>
     </row>
     <row r="52" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B52" s="45"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="56"/>
       <c r="D52" s="56"/>
       <c r="E52" s="56"/>
@@ -2802,7 +2880,7 @@
       <c r="AG52" s="56"/>
     </row>
     <row r="53" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B53" s="45"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="56"/>
       <c r="D53" s="56"/>
       <c r="E53" s="56"/>
@@ -2836,7 +2914,7 @@
       <c r="AG53" s="56"/>
     </row>
     <row r="54" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B54" s="45"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="56"/>
       <c r="D54" s="56"/>
       <c r="E54" s="56"/>
@@ -2870,7 +2948,7 @@
       <c r="AG54" s="56"/>
     </row>
     <row r="55" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="45"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="56"/>
       <c r="D55" s="56"/>
       <c r="E55" s="56"/>
@@ -2904,7 +2982,7 @@
       <c r="AG55" s="56"/>
     </row>
     <row r="56" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B56" s="45"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="56"/>
       <c r="D56" s="56"/>
       <c r="E56" s="56"/>
@@ -2938,7 +3016,7 @@
       <c r="AG56" s="56"/>
     </row>
     <row r="57" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="45"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="56"/>
       <c r="D57" s="56"/>
       <c r="E57" s="56"/>
@@ -2972,7 +3050,7 @@
       <c r="AG57" s="56"/>
     </row>
     <row r="58" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B58" s="45"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="56"/>
       <c r="D58" s="56"/>
       <c r="E58" s="56"/>
@@ -3006,7 +3084,7 @@
       <c r="AG58" s="56"/>
     </row>
     <row r="59" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="45"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="56"/>
       <c r="D59" s="56"/>
       <c r="E59" s="56"/>
@@ -3040,7 +3118,7 @@
       <c r="AG59" s="56"/>
     </row>
     <row r="60" spans="2:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B60" s="45"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="56"/>
       <c r="D60" s="56"/>
       <c r="E60" s="56"/>
@@ -3074,7 +3152,7 @@
       <c r="AG60" s="56"/>
     </row>
     <row r="61" spans="2:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="45"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="56"/>
       <c r="D61" s="56"/>
       <c r="E61" s="56"/>
@@ -3110,58 +3188,58 @@
     <row r="62" spans="2:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="2:33" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:33" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N64" s="69"/>
-      <c r="O64" s="69"/>
-      <c r="P64" s="69"/>
-      <c r="Q64" s="69"/>
-      <c r="R64" s="46"/>
-      <c r="S64" s="46"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="46"/>
-      <c r="V64" s="47"/>
-      <c r="W64" s="47"/>
-      <c r="X64" s="47"/>
-      <c r="Y64" s="47"/>
-      <c r="Z64" s="47"/>
-      <c r="AA64" s="47"/>
-      <c r="AB64" s="47"/>
-      <c r="AC64" s="47"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="55"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="45"/>
+      <c r="S64" s="45"/>
+      <c r="T64" s="45"/>
+      <c r="U64" s="45"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="46"/>
+      <c r="X64" s="46"/>
+      <c r="Y64" s="46"/>
+      <c r="Z64" s="46"/>
+      <c r="AA64" s="46"/>
+      <c r="AB64" s="46"/>
+      <c r="AC64" s="46"/>
     </row>
     <row r="65" spans="14:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N65" s="47"/>
-      <c r="O65" s="47"/>
-      <c r="P65" s="47"/>
-      <c r="Q65" s="47"/>
-      <c r="R65" s="47"/>
-      <c r="S65" s="47"/>
-      <c r="T65" s="47"/>
-      <c r="U65" s="47"/>
-      <c r="V65" s="47"/>
-      <c r="W65" s="47"/>
-      <c r="X65" s="47"/>
-      <c r="Y65" s="47"/>
-      <c r="Z65" s="47"/>
-      <c r="AA65" s="47"/>
-      <c r="AB65" s="47"/>
-      <c r="AC65" s="47"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="46"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="46"/>
+      <c r="X65" s="46"/>
+      <c r="Y65" s="46"/>
+      <c r="Z65" s="46"/>
+      <c r="AA65" s="46"/>
+      <c r="AB65" s="46"/>
+      <c r="AC65" s="46"/>
     </row>
     <row r="66" spans="14:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="N66" s="48"/>
-      <c r="O66" s="49"/>
-      <c r="P66" s="49"/>
-      <c r="Q66" s="49"/>
-      <c r="R66" s="49"/>
-      <c r="S66" s="49"/>
-      <c r="T66" s="50"/>
-      <c r="U66" s="50"/>
-      <c r="V66" s="47"/>
-      <c r="W66" s="47"/>
-      <c r="X66" s="47"/>
-      <c r="Y66" s="47"/>
-      <c r="Z66" s="47"/>
-      <c r="AA66" s="47"/>
-      <c r="AB66" s="47"/>
-      <c r="AC66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="48"/>
+      <c r="P66" s="48"/>
+      <c r="Q66" s="48"/>
+      <c r="R66" s="48"/>
+      <c r="S66" s="48"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="49"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
+      <c r="Y66" s="46"/>
+      <c r="Z66" s="46"/>
+      <c r="AA66" s="46"/>
+      <c r="AB66" s="46"/>
+      <c r="AC66" s="46"/>
     </row>
     <row r="68" spans="14:35" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="N68" s="5"/>
@@ -3203,6 +3281,66 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="O61:Y61"/>
+    <mergeCell ref="Z61:AG61"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="O59:Y59"/>
+    <mergeCell ref="Z59:AG59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="O60:Y60"/>
+    <mergeCell ref="Z60:AG60"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="O57:Y57"/>
+    <mergeCell ref="Z57:AG57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="O58:Y58"/>
+    <mergeCell ref="Z58:AG58"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="O55:Y55"/>
+    <mergeCell ref="Z55:AG55"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="O56:Y56"/>
+    <mergeCell ref="Z56:AG56"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:Y53"/>
+    <mergeCell ref="Z53:AG53"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="O54:Y54"/>
+    <mergeCell ref="Z54:AG54"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:Y51"/>
+    <mergeCell ref="Z51:AG51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="O52:Y52"/>
+    <mergeCell ref="Z52:AG52"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="O49:Y49"/>
+    <mergeCell ref="Z49:AG49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="O50:Y50"/>
+    <mergeCell ref="Z50:AG50"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="N64:Q64"/>
     <mergeCell ref="K46:N46"/>
     <mergeCell ref="B43:AE43"/>
@@ -3219,66 +3357,6 @@
     <mergeCell ref="K48:N48"/>
     <mergeCell ref="O48:Y48"/>
     <mergeCell ref="Z48:AG48"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="O49:Y49"/>
-    <mergeCell ref="Z49:AG49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:Y50"/>
-    <mergeCell ref="Z50:AG50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:Y51"/>
-    <mergeCell ref="Z51:AG51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="O52:Y52"/>
-    <mergeCell ref="Z52:AG52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:Y53"/>
-    <mergeCell ref="Z53:AG53"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="O54:Y54"/>
-    <mergeCell ref="Z54:AG54"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="O55:Y55"/>
-    <mergeCell ref="Z55:AG55"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="O56:Y56"/>
-    <mergeCell ref="Z56:AG56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="O57:Y57"/>
-    <mergeCell ref="Z57:AG57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="O58:Y58"/>
-    <mergeCell ref="Z58:AG58"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="O61:Y61"/>
-    <mergeCell ref="Z61:AG61"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="O59:Y59"/>
-    <mergeCell ref="Z59:AG59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="O60:Y60"/>
-    <mergeCell ref="Z60:AG60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/KURSOVOI_PROECT_KURS3/шаблон_рапортичка.xlsx
+++ b/KURSOVOI_PROECT_KURS3/шаблон_рапортичка.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ART1\source\repos\KURSOVOI_PROECT_KURS3\KURSOVOI_PROECT_KURS3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahla\source\repos\IARTII\student_raport\KURSOVOI_PROECT_KURS3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FF9152-79DC-44E1-A0F7-321B0104D394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23737C49-6892-4AE3-A26C-A7E195633DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Рапортичка" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -650,49 +661,49 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -978,32 +989,32 @@
   <dimension ref="A2:AI73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ25" sqref="AJ25"/>
+      <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="8" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="3.5546875" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" customWidth="1"/>
     <col min="13" max="16" width="5" customWidth="1"/>
-    <col min="17" max="17" width="3.5546875" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" customWidth="1"/>
     <col min="18" max="21" width="5" customWidth="1"/>
     <col min="22" max="22" width="4" customWidth="1"/>
     <col min="23" max="26" width="5" customWidth="1"/>
-    <col min="27" max="27" width="3.77734375" customWidth="1"/>
-    <col min="28" max="28" width="4.88671875" customWidth="1"/>
-    <col min="29" max="29" width="4.6640625" customWidth="1"/>
-    <col min="30" max="30" width="5.109375" customWidth="1"/>
-    <col min="31" max="31" width="4.5546875" customWidth="1"/>
+    <col min="27" max="27" width="3.7109375" customWidth="1"/>
+    <col min="28" max="28" width="4.85546875" customWidth="1"/>
+    <col min="29" max="29" width="4.7109375" customWidth="1"/>
+    <col min="30" max="30" width="5.140625" customWidth="1"/>
+    <col min="31" max="31" width="4.5703125" customWidth="1"/>
     <col min="32" max="32" width="8" customWidth="1"/>
-    <col min="33" max="33" width="7.6640625" customWidth="1"/>
+    <col min="33" max="33" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>10</v>
@@ -1046,7 +1057,7 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="6"/>
     </row>
-    <row r="3" spans="1:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1079,62 +1090,62 @@
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
     </row>
-    <row r="4" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+    <row r="4" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="58" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="58" t="s">
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="58" t="s">
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="58" t="s">
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="58" t="s">
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="66" t="s">
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="AG4" s="67"/>
-    </row>
-    <row r="5" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="69"/>
+      <c r="AG4" s="65"/>
+    </row>
+    <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="11">
         <v>1</v>
       </c>
@@ -1229,7 +1240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1269,7 +1280,7 @@
       </c>
       <c r="AG6" s="18"/>
     </row>
-    <row r="7" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1309,7 +1320,7 @@
       </c>
       <c r="AG7" s="18"/>
     </row>
-    <row r="8" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1349,7 +1360,7 @@
       </c>
       <c r="AG8" s="18"/>
     </row>
-    <row r="9" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1389,7 +1400,7 @@
       </c>
       <c r="AG9" s="18"/>
     </row>
-    <row r="10" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1429,7 +1440,7 @@
       </c>
       <c r="AG10" s="18"/>
     </row>
-    <row r="11" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -1469,7 +1480,7 @@
       </c>
       <c r="AG11" s="18"/>
     </row>
-    <row r="12" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -1504,12 +1515,12 @@
       <c r="AD12" s="23"/>
       <c r="AE12" s="18"/>
       <c r="AF12" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(C12:AE12)</f>
         <v>0</v>
       </c>
       <c r="AG12" s="18"/>
     </row>
-    <row r="13" spans="1:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1549,7 +1560,7 @@
       </c>
       <c r="AG13" s="18"/>
     </row>
-    <row r="14" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -1589,7 +1600,7 @@
       </c>
       <c r="AG14" s="18"/>
     </row>
-    <row r="15" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -1629,7 +1640,7 @@
       </c>
       <c r="AG15" s="18"/>
     </row>
-    <row r="16" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -1669,7 +1680,7 @@
       </c>
       <c r="AG16" s="18"/>
     </row>
-    <row r="17" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -1709,7 +1720,7 @@
       </c>
       <c r="AG17" s="18"/>
     </row>
-    <row r="18" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -1749,7 +1760,7 @@
       </c>
       <c r="AG18" s="18"/>
     </row>
-    <row r="19" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -1789,7 +1800,7 @@
       </c>
       <c r="AG19" s="18"/>
     </row>
-    <row r="20" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -1829,7 +1840,7 @@
       </c>
       <c r="AG20" s="18"/>
     </row>
-    <row r="21" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -1869,7 +1880,7 @@
       </c>
       <c r="AG21" s="18"/>
     </row>
-    <row r="22" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -1909,7 +1920,7 @@
       </c>
       <c r="AG22" s="18"/>
     </row>
-    <row r="23" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -1949,7 +1960,7 @@
       </c>
       <c r="AG23" s="18"/>
     </row>
-    <row r="24" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -1989,7 +2000,7 @@
       </c>
       <c r="AG24" s="18"/>
     </row>
-    <row r="25" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -2029,7 +2040,7 @@
       </c>
       <c r="AG25" s="18"/>
     </row>
-    <row r="26" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>21</v>
       </c>
@@ -2069,7 +2080,7 @@
       </c>
       <c r="AG26" s="18"/>
     </row>
-    <row r="27" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -2109,7 +2120,7 @@
       </c>
       <c r="AG27" s="18"/>
     </row>
-    <row r="28" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -2149,7 +2160,7 @@
       </c>
       <c r="AG28" s="18"/>
     </row>
-    <row r="29" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>24</v>
       </c>
@@ -2189,7 +2200,7 @@
       </c>
       <c r="AG29" s="18"/>
     </row>
-    <row r="30" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -2229,7 +2240,7 @@
       </c>
       <c r="AG30" s="18"/>
     </row>
-    <row r="31" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>26</v>
       </c>
@@ -2269,7 +2280,7 @@
       </c>
       <c r="AG31" s="18"/>
     </row>
-    <row r="32" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -2309,7 +2320,7 @@
       </c>
       <c r="AG32" s="18"/>
     </row>
-    <row r="33" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>28</v>
       </c>
@@ -2349,7 +2360,7 @@
       </c>
       <c r="AG33" s="18"/>
     </row>
-    <row r="34" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -2389,7 +2400,7 @@
       </c>
       <c r="AG34" s="18"/>
     </row>
-    <row r="35" spans="1:33" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -2429,7 +2440,7 @@
       </c>
       <c r="AG35" s="39"/>
     </row>
-    <row r="36" spans="1:33" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="28" t="s">
         <v>7</v>
@@ -2466,7 +2477,7 @@
       <c r="AF36" s="29"/>
       <c r="AG36" s="30"/>
     </row>
-    <row r="37" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="31" t="s">
         <v>8</v>
@@ -2503,7 +2514,7 @@
       <c r="AF37" s="24"/>
       <c r="AG37" s="26"/>
     </row>
-    <row r="38" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
         <v>11</v>
       </c>
@@ -2539,75 +2550,75 @@
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
     </row>
-    <row r="43" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="57"/>
-      <c r="T43" s="57"/>
-      <c r="U43" s="57"/>
-      <c r="V43" s="57"/>
-      <c r="W43" s="57"/>
-      <c r="X43" s="57"/>
-      <c r="Y43" s="57"/>
-      <c r="Z43" s="57"/>
-      <c r="AA43" s="57"/>
-      <c r="AB43" s="57"/>
-      <c r="AC43" s="57"/>
-      <c r="AD43" s="57"/>
-      <c r="AE43" s="57"/>
+    <row r="43" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="69"/>
+      <c r="R43" s="69"/>
+      <c r="S43" s="69"/>
+      <c r="T43" s="69"/>
+      <c r="U43" s="69"/>
+      <c r="V43" s="69"/>
+      <c r="W43" s="69"/>
+      <c r="X43" s="69"/>
+      <c r="Y43" s="69"/>
+      <c r="Z43" s="69"/>
+      <c r="AA43" s="69"/>
+      <c r="AB43" s="69"/>
+      <c r="AC43" s="69"/>
+      <c r="AD43" s="69"/>
+      <c r="AE43" s="69"/>
       <c r="AF43" s="43"/>
       <c r="AG43" s="43"/>
     </row>
-    <row r="44" spans="1:33" ht="18" x14ac:dyDescent="0.25">
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="57"/>
-      <c r="X44" s="57"/>
-      <c r="Y44" s="57"/>
-      <c r="Z44" s="57"/>
-      <c r="AA44" s="57"/>
-      <c r="AB44" s="57"/>
-      <c r="AC44" s="57"/>
-      <c r="AD44" s="57"/>
-      <c r="AE44" s="57"/>
-      <c r="AF44" s="57"/>
-      <c r="AG44" s="57"/>
-    </row>
-    <row r="45" spans="1:33" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="69"/>
+      <c r="S44" s="69"/>
+      <c r="T44" s="69"/>
+      <c r="U44" s="69"/>
+      <c r="V44" s="69"/>
+      <c r="W44" s="69"/>
+      <c r="X44" s="69"/>
+      <c r="Y44" s="69"/>
+      <c r="Z44" s="69"/>
+      <c r="AA44" s="69"/>
+      <c r="AB44" s="69"/>
+      <c r="AC44" s="69"/>
+      <c r="AD44" s="69"/>
+      <c r="AE44" s="69"/>
+      <c r="AF44" s="69"/>
+      <c r="AG44" s="69"/>
+    </row>
+    <row r="45" spans="1:33" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
       <c r="D45" s="43"/>
@@ -2641,557 +2652,557 @@
       <c r="AF45" s="43"/>
       <c r="AG45" s="43"/>
     </row>
-    <row r="46" spans="1:33" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B46" s="44"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="56"/>
-      <c r="AC46" s="56"/>
-      <c r="AD46" s="56"/>
-      <c r="AE46" s="56"/>
-      <c r="AF46" s="56"/>
-      <c r="AG46" s="56"/>
-    </row>
-    <row r="47" spans="1:33" ht="18" x14ac:dyDescent="0.25">
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="55"/>
+      <c r="Y46" s="55"/>
+      <c r="Z46" s="55"/>
+      <c r="AA46" s="55"/>
+      <c r="AB46" s="55"/>
+      <c r="AC46" s="55"/>
+      <c r="AD46" s="55"/>
+      <c r="AE46" s="55"/>
+      <c r="AF46" s="55"/>
+      <c r="AG46" s="55"/>
+    </row>
+    <row r="47" spans="1:33" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B47" s="44"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="56"/>
-      <c r="T47" s="56"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="56"/>
-      <c r="X47" s="56"/>
-      <c r="Y47" s="56"/>
-      <c r="Z47" s="56"/>
-      <c r="AA47" s="56"/>
-      <c r="AB47" s="56"/>
-      <c r="AC47" s="56"/>
-      <c r="AD47" s="56"/>
-      <c r="AE47" s="56"/>
-      <c r="AF47" s="56"/>
-      <c r="AG47" s="56"/>
-    </row>
-    <row r="48" spans="1:33" ht="18" x14ac:dyDescent="0.25">
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55"/>
+      <c r="Z47" s="55"/>
+      <c r="AA47" s="55"/>
+      <c r="AB47" s="55"/>
+      <c r="AC47" s="55"/>
+      <c r="AD47" s="55"/>
+      <c r="AE47" s="55"/>
+      <c r="AF47" s="55"/>
+      <c r="AG47" s="55"/>
+    </row>
+    <row r="48" spans="1:33" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B48" s="44"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="56"/>
-      <c r="AD48" s="56"/>
-      <c r="AE48" s="56"/>
-      <c r="AF48" s="56"/>
-      <c r="AG48" s="56"/>
-    </row>
-    <row r="49" spans="2:33" ht="18" x14ac:dyDescent="0.25">
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55"/>
+      <c r="Y48" s="55"/>
+      <c r="Z48" s="55"/>
+      <c r="AA48" s="55"/>
+      <c r="AB48" s="55"/>
+      <c r="AC48" s="55"/>
+      <c r="AD48" s="55"/>
+      <c r="AE48" s="55"/>
+      <c r="AF48" s="55"/>
+      <c r="AG48" s="55"/>
+    </row>
+    <row r="49" spans="2:33" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B49" s="44"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="56"/>
-      <c r="AC49" s="56"/>
-      <c r="AD49" s="56"/>
-      <c r="AE49" s="56"/>
-      <c r="AF49" s="56"/>
-      <c r="AG49" s="56"/>
-    </row>
-    <row r="50" spans="2:33" ht="18" x14ac:dyDescent="0.25">
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55"/>
+      <c r="AA49" s="55"/>
+      <c r="AB49" s="55"/>
+      <c r="AC49" s="55"/>
+      <c r="AD49" s="55"/>
+      <c r="AE49" s="55"/>
+      <c r="AF49" s="55"/>
+      <c r="AG49" s="55"/>
+    </row>
+    <row r="50" spans="2:33" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B50" s="44"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="56"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="56"/>
-      <c r="X50" s="56"/>
-      <c r="Y50" s="56"/>
-      <c r="Z50" s="56"/>
-      <c r="AA50" s="56"/>
-      <c r="AB50" s="56"/>
-      <c r="AC50" s="56"/>
-      <c r="AD50" s="56"/>
-      <c r="AE50" s="56"/>
-      <c r="AF50" s="56"/>
-      <c r="AG50" s="56"/>
-    </row>
-    <row r="51" spans="2:33" ht="18" x14ac:dyDescent="0.25">
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="55"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="55"/>
+      <c r="W50" s="55"/>
+      <c r="X50" s="55"/>
+      <c r="Y50" s="55"/>
+      <c r="Z50" s="55"/>
+      <c r="AA50" s="55"/>
+      <c r="AB50" s="55"/>
+      <c r="AC50" s="55"/>
+      <c r="AD50" s="55"/>
+      <c r="AE50" s="55"/>
+      <c r="AF50" s="55"/>
+      <c r="AG50" s="55"/>
+    </row>
+    <row r="51" spans="2:33" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B51" s="44"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="56"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="56"/>
-      <c r="X51" s="56"/>
-      <c r="Y51" s="56"/>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="56"/>
-      <c r="AB51" s="56"/>
-      <c r="AC51" s="56"/>
-      <c r="AD51" s="56"/>
-      <c r="AE51" s="56"/>
-      <c r="AF51" s="56"/>
-      <c r="AG51" s="56"/>
-    </row>
-    <row r="52" spans="2:33" ht="18" x14ac:dyDescent="0.25">
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="55"/>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="55"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="55"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="55"/>
+      <c r="W51" s="55"/>
+      <c r="X51" s="55"/>
+      <c r="Y51" s="55"/>
+      <c r="Z51" s="55"/>
+      <c r="AA51" s="55"/>
+      <c r="AB51" s="55"/>
+      <c r="AC51" s="55"/>
+      <c r="AD51" s="55"/>
+      <c r="AE51" s="55"/>
+      <c r="AF51" s="55"/>
+      <c r="AG51" s="55"/>
+    </row>
+    <row r="52" spans="2:33" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B52" s="44"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="56"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="56"/>
-      <c r="Z52" s="56"/>
-      <c r="AA52" s="56"/>
-      <c r="AB52" s="56"/>
-      <c r="AC52" s="56"/>
-      <c r="AD52" s="56"/>
-      <c r="AE52" s="56"/>
-      <c r="AF52" s="56"/>
-      <c r="AG52" s="56"/>
-    </row>
-    <row r="53" spans="2:33" ht="18" x14ac:dyDescent="0.25">
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
+      <c r="Q52" s="55"/>
+      <c r="R52" s="55"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="55"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="55"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="55"/>
+      <c r="Y52" s="55"/>
+      <c r="Z52" s="55"/>
+      <c r="AA52" s="55"/>
+      <c r="AB52" s="55"/>
+      <c r="AC52" s="55"/>
+      <c r="AD52" s="55"/>
+      <c r="AE52" s="55"/>
+      <c r="AF52" s="55"/>
+      <c r="AG52" s="55"/>
+    </row>
+    <row r="53" spans="2:33" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B53" s="44"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="56"/>
-      <c r="AA53" s="56"/>
-      <c r="AB53" s="56"/>
-      <c r="AC53" s="56"/>
-      <c r="AD53" s="56"/>
-      <c r="AE53" s="56"/>
-      <c r="AF53" s="56"/>
-      <c r="AG53" s="56"/>
-    </row>
-    <row r="54" spans="2:33" ht="18" x14ac:dyDescent="0.25">
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="55"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="55"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="55"/>
+      <c r="W53" s="55"/>
+      <c r="X53" s="55"/>
+      <c r="Y53" s="55"/>
+      <c r="Z53" s="55"/>
+      <c r="AA53" s="55"/>
+      <c r="AB53" s="55"/>
+      <c r="AC53" s="55"/>
+      <c r="AD53" s="55"/>
+      <c r="AE53" s="55"/>
+      <c r="AF53" s="55"/>
+      <c r="AG53" s="55"/>
+    </row>
+    <row r="54" spans="2:33" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B54" s="44"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="56"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="56"/>
-      <c r="Y54" s="56"/>
-      <c r="Z54" s="56"/>
-      <c r="AA54" s="56"/>
-      <c r="AB54" s="56"/>
-      <c r="AC54" s="56"/>
-      <c r="AD54" s="56"/>
-      <c r="AE54" s="56"/>
-      <c r="AF54" s="56"/>
-      <c r="AG54" s="56"/>
-    </row>
-    <row r="55" spans="2:33" ht="18" x14ac:dyDescent="0.25">
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="55"/>
+      <c r="U54" s="55"/>
+      <c r="V54" s="55"/>
+      <c r="W54" s="55"/>
+      <c r="X54" s="55"/>
+      <c r="Y54" s="55"/>
+      <c r="Z54" s="55"/>
+      <c r="AA54" s="55"/>
+      <c r="AB54" s="55"/>
+      <c r="AC54" s="55"/>
+      <c r="AD54" s="55"/>
+      <c r="AE54" s="55"/>
+      <c r="AF54" s="55"/>
+      <c r="AG54" s="55"/>
+    </row>
+    <row r="55" spans="2:33" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B55" s="44"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="56"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="56"/>
-      <c r="X55" s="56"/>
-      <c r="Y55" s="56"/>
-      <c r="Z55" s="56"/>
-      <c r="AA55" s="56"/>
-      <c r="AB55" s="56"/>
-      <c r="AC55" s="56"/>
-      <c r="AD55" s="56"/>
-      <c r="AE55" s="56"/>
-      <c r="AF55" s="56"/>
-      <c r="AG55" s="56"/>
-    </row>
-    <row r="56" spans="2:33" ht="18" x14ac:dyDescent="0.25">
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="55"/>
+      <c r="Q55" s="55"/>
+      <c r="R55" s="55"/>
+      <c r="S55" s="55"/>
+      <c r="T55" s="55"/>
+      <c r="U55" s="55"/>
+      <c r="V55" s="55"/>
+      <c r="W55" s="55"/>
+      <c r="X55" s="55"/>
+      <c r="Y55" s="55"/>
+      <c r="Z55" s="55"/>
+      <c r="AA55" s="55"/>
+      <c r="AB55" s="55"/>
+      <c r="AC55" s="55"/>
+      <c r="AD55" s="55"/>
+      <c r="AE55" s="55"/>
+      <c r="AF55" s="55"/>
+      <c r="AG55" s="55"/>
+    </row>
+    <row r="56" spans="2:33" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B56" s="44"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="56"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="56"/>
-      <c r="U56" s="56"/>
-      <c r="V56" s="56"/>
-      <c r="W56" s="56"/>
-      <c r="X56" s="56"/>
-      <c r="Y56" s="56"/>
-      <c r="Z56" s="56"/>
-      <c r="AA56" s="56"/>
-      <c r="AB56" s="56"/>
-      <c r="AC56" s="56"/>
-      <c r="AD56" s="56"/>
-      <c r="AE56" s="56"/>
-      <c r="AF56" s="56"/>
-      <c r="AG56" s="56"/>
-    </row>
-    <row r="57" spans="2:33" ht="18" x14ac:dyDescent="0.25">
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="55"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="55"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="55"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="55"/>
+      <c r="W56" s="55"/>
+      <c r="X56" s="55"/>
+      <c r="Y56" s="55"/>
+      <c r="Z56" s="55"/>
+      <c r="AA56" s="55"/>
+      <c r="AB56" s="55"/>
+      <c r="AC56" s="55"/>
+      <c r="AD56" s="55"/>
+      <c r="AE56" s="55"/>
+      <c r="AF56" s="55"/>
+      <c r="AG56" s="55"/>
+    </row>
+    <row r="57" spans="2:33" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B57" s="44"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="56"/>
-      <c r="N57" s="56"/>
-      <c r="O57" s="56"/>
-      <c r="P57" s="56"/>
-      <c r="Q57" s="56"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="56"/>
-      <c r="T57" s="56"/>
-      <c r="U57" s="56"/>
-      <c r="V57" s="56"/>
-      <c r="W57" s="56"/>
-      <c r="X57" s="56"/>
-      <c r="Y57" s="56"/>
-      <c r="Z57" s="56"/>
-      <c r="AA57" s="56"/>
-      <c r="AB57" s="56"/>
-      <c r="AC57" s="56"/>
-      <c r="AD57" s="56"/>
-      <c r="AE57" s="56"/>
-      <c r="AF57" s="56"/>
-      <c r="AG57" s="56"/>
-    </row>
-    <row r="58" spans="2:33" ht="18" x14ac:dyDescent="0.25">
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="55"/>
+      <c r="U57" s="55"/>
+      <c r="V57" s="55"/>
+      <c r="W57" s="55"/>
+      <c r="X57" s="55"/>
+      <c r="Y57" s="55"/>
+      <c r="Z57" s="55"/>
+      <c r="AA57" s="55"/>
+      <c r="AB57" s="55"/>
+      <c r="AC57" s="55"/>
+      <c r="AD57" s="55"/>
+      <c r="AE57" s="55"/>
+      <c r="AF57" s="55"/>
+      <c r="AG57" s="55"/>
+    </row>
+    <row r="58" spans="2:33" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B58" s="44"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
-      <c r="R58" s="56"/>
-      <c r="S58" s="56"/>
-      <c r="T58" s="56"/>
-      <c r="U58" s="56"/>
-      <c r="V58" s="56"/>
-      <c r="W58" s="56"/>
-      <c r="X58" s="56"/>
-      <c r="Y58" s="56"/>
-      <c r="Z58" s="56"/>
-      <c r="AA58" s="56"/>
-      <c r="AB58" s="56"/>
-      <c r="AC58" s="56"/>
-      <c r="AD58" s="56"/>
-      <c r="AE58" s="56"/>
-      <c r="AF58" s="56"/>
-      <c r="AG58" s="56"/>
-    </row>
-    <row r="59" spans="2:33" ht="18" x14ac:dyDescent="0.25">
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="55"/>
+      <c r="T58" s="55"/>
+      <c r="U58" s="55"/>
+      <c r="V58" s="55"/>
+      <c r="W58" s="55"/>
+      <c r="X58" s="55"/>
+      <c r="Y58" s="55"/>
+      <c r="Z58" s="55"/>
+      <c r="AA58" s="55"/>
+      <c r="AB58" s="55"/>
+      <c r="AC58" s="55"/>
+      <c r="AD58" s="55"/>
+      <c r="AE58" s="55"/>
+      <c r="AF58" s="55"/>
+      <c r="AG58" s="55"/>
+    </row>
+    <row r="59" spans="2:33" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B59" s="44"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="56"/>
-      <c r="P59" s="56"/>
-      <c r="Q59" s="56"/>
-      <c r="R59" s="56"/>
-      <c r="S59" s="56"/>
-      <c r="T59" s="56"/>
-      <c r="U59" s="56"/>
-      <c r="V59" s="56"/>
-      <c r="W59" s="56"/>
-      <c r="X59" s="56"/>
-      <c r="Y59" s="56"/>
-      <c r="Z59" s="56"/>
-      <c r="AA59" s="56"/>
-      <c r="AB59" s="56"/>
-      <c r="AC59" s="56"/>
-      <c r="AD59" s="56"/>
-      <c r="AE59" s="56"/>
-      <c r="AF59" s="56"/>
-      <c r="AG59" s="56"/>
-    </row>
-    <row r="60" spans="2:33" ht="18" x14ac:dyDescent="0.25">
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="55"/>
+      <c r="O59" s="55"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="55"/>
+      <c r="R59" s="55"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="55"/>
+      <c r="U59" s="55"/>
+      <c r="V59" s="55"/>
+      <c r="W59" s="55"/>
+      <c r="X59" s="55"/>
+      <c r="Y59" s="55"/>
+      <c r="Z59" s="55"/>
+      <c r="AA59" s="55"/>
+      <c r="AB59" s="55"/>
+      <c r="AC59" s="55"/>
+      <c r="AD59" s="55"/>
+      <c r="AE59" s="55"/>
+      <c r="AF59" s="55"/>
+      <c r="AG59" s="55"/>
+    </row>
+    <row r="60" spans="2:33" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B60" s="44"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="56"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="56"/>
-      <c r="O60" s="56"/>
-      <c r="P60" s="56"/>
-      <c r="Q60" s="56"/>
-      <c r="R60" s="56"/>
-      <c r="S60" s="56"/>
-      <c r="T60" s="56"/>
-      <c r="U60" s="56"/>
-      <c r="V60" s="56"/>
-      <c r="W60" s="56"/>
-      <c r="X60" s="56"/>
-      <c r="Y60" s="56"/>
-      <c r="Z60" s="56"/>
-      <c r="AA60" s="56"/>
-      <c r="AB60" s="56"/>
-      <c r="AC60" s="56"/>
-      <c r="AD60" s="56"/>
-      <c r="AE60" s="56"/>
-      <c r="AF60" s="56"/>
-      <c r="AG60" s="56"/>
-    </row>
-    <row r="61" spans="2:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="55"/>
+      <c r="N60" s="55"/>
+      <c r="O60" s="55"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="55"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="55"/>
+      <c r="U60" s="55"/>
+      <c r="V60" s="55"/>
+      <c r="W60" s="55"/>
+      <c r="X60" s="55"/>
+      <c r="Y60" s="55"/>
+      <c r="Z60" s="55"/>
+      <c r="AA60" s="55"/>
+      <c r="AB60" s="55"/>
+      <c r="AC60" s="55"/>
+      <c r="AD60" s="55"/>
+      <c r="AE60" s="55"/>
+      <c r="AF60" s="55"/>
+      <c r="AG60" s="55"/>
+    </row>
+    <row r="61" spans="2:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="44"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="56"/>
-      <c r="K61" s="56"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="56"/>
-      <c r="O61" s="56"/>
-      <c r="P61" s="56"/>
-      <c r="Q61" s="56"/>
-      <c r="R61" s="56"/>
-      <c r="S61" s="56"/>
-      <c r="T61" s="56"/>
-      <c r="U61" s="56"/>
-      <c r="V61" s="56"/>
-      <c r="W61" s="56"/>
-      <c r="X61" s="56"/>
-      <c r="Y61" s="56"/>
-      <c r="Z61" s="56"/>
-      <c r="AA61" s="56"/>
-      <c r="AB61" s="56"/>
-      <c r="AC61" s="56"/>
-      <c r="AD61" s="56"/>
-      <c r="AE61" s="56"/>
-      <c r="AF61" s="56"/>
-      <c r="AG61" s="56"/>
-    </row>
-    <row r="62" spans="2:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:33" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:33" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55"/>
+      <c r="R61" s="55"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="55"/>
+      <c r="U61" s="55"/>
+      <c r="V61" s="55"/>
+      <c r="W61" s="55"/>
+      <c r="X61" s="55"/>
+      <c r="Y61" s="55"/>
+      <c r="Z61" s="55"/>
+      <c r="AA61" s="55"/>
+      <c r="AB61" s="55"/>
+      <c r="AC61" s="55"/>
+      <c r="AD61" s="55"/>
+      <c r="AE61" s="55"/>
+      <c r="AF61" s="55"/>
+      <c r="AG61" s="55"/>
+    </row>
+    <row r="62" spans="2:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:33" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:33" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N64" s="68"/>
+      <c r="O64" s="68"/>
+      <c r="P64" s="68"/>
+      <c r="Q64" s="68"/>
       <c r="R64" s="45"/>
       <c r="S64" s="45"/>
       <c r="T64" s="45"/>
@@ -3205,7 +3216,7 @@
       <c r="AB64" s="46"/>
       <c r="AC64" s="46"/>
     </row>
-    <row r="65" spans="14:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="14:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N65" s="46"/>
       <c r="O65" s="46"/>
       <c r="P65" s="46"/>
@@ -3223,7 +3234,7 @@
       <c r="AB65" s="46"/>
       <c r="AC65" s="46"/>
     </row>
-    <row r="66" spans="14:35" ht="21" x14ac:dyDescent="0.35">
+    <row r="66" spans="14:35" ht="20.25" x14ac:dyDescent="0.3">
       <c r="N66" s="47"/>
       <c r="O66" s="48"/>
       <c r="P66" s="48"/>
@@ -3241,7 +3252,7 @@
       <c r="AB66" s="46"/>
       <c r="AC66" s="46"/>
     </row>
-    <row r="68" spans="14:35" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="68" spans="14:35" ht="18" x14ac:dyDescent="0.2">
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
@@ -3261,7 +3272,7 @@
       <c r="AD68" s="4"/>
       <c r="AE68" s="4"/>
     </row>
-    <row r="71" spans="14:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="14:35" x14ac:dyDescent="0.2">
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
@@ -3275,72 +3286,12 @@
       <c r="AF71" s="4"/>
       <c r="AG71" s="4"/>
     </row>
-    <row r="73" spans="14:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="14:35" x14ac:dyDescent="0.2">
       <c r="AH73" s="4"/>
       <c r="AI73" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="O61:Y61"/>
-    <mergeCell ref="Z61:AG61"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="O59:Y59"/>
-    <mergeCell ref="Z59:AG59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="O60:Y60"/>
-    <mergeCell ref="Z60:AG60"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="O57:Y57"/>
-    <mergeCell ref="Z57:AG57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="O58:Y58"/>
-    <mergeCell ref="Z58:AG58"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="O55:Y55"/>
-    <mergeCell ref="Z55:AG55"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="O56:Y56"/>
-    <mergeCell ref="Z56:AG56"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:Y53"/>
-    <mergeCell ref="Z53:AG53"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="O54:Y54"/>
-    <mergeCell ref="Z54:AG54"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:Y51"/>
-    <mergeCell ref="Z51:AG51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="O52:Y52"/>
-    <mergeCell ref="Z52:AG52"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="O49:Y49"/>
-    <mergeCell ref="Z49:AG49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:Y50"/>
-    <mergeCell ref="Z50:AG50"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="B4:B5"/>
     <mergeCell ref="N64:Q64"/>
     <mergeCell ref="K46:N46"/>
     <mergeCell ref="B43:AE43"/>
@@ -3357,9 +3308,69 @@
     <mergeCell ref="K48:N48"/>
     <mergeCell ref="O48:Y48"/>
     <mergeCell ref="Z48:AG48"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="O49:Y49"/>
+    <mergeCell ref="Z49:AG49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="O50:Y50"/>
+    <mergeCell ref="Z50:AG50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:Y51"/>
+    <mergeCell ref="Z51:AG51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="O52:Y52"/>
+    <mergeCell ref="Z52:AG52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:Y53"/>
+    <mergeCell ref="Z53:AG53"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="O54:Y54"/>
+    <mergeCell ref="Z54:AG54"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="O55:Y55"/>
+    <mergeCell ref="Z55:AG55"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="O56:Y56"/>
+    <mergeCell ref="Z56:AG56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="O57:Y57"/>
+    <mergeCell ref="Z57:AG57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="O58:Y58"/>
+    <mergeCell ref="Z58:AG58"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="O61:Y61"/>
+    <mergeCell ref="Z61:AG61"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="O59:Y59"/>
+    <mergeCell ref="Z59:AG59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="O60:Y60"/>
+    <mergeCell ref="Z60:AG60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
